--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>CMXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -826,8 +833,8 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +859,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,8 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,31 +934,31 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,29 +1057,32 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,12 +1104,12 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1094,11 +1117,11 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,46 +1164,49 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,46 +1217,49 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,11 +1294,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-400</v>
       </c>
       <c r="H21" s="3">
         <v>-400</v>
       </c>
       <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,11 +1930,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,25 +2226,26 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2170,28 +2257,31 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2311,7 +2407,7 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,11 +2451,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2370,78 +2469,84 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2510,29 +2618,29 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,19 +3010,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
@@ -2901,13 +3032,13 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -2916,13 +3047,13 @@
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,22 +3073,22 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2963,36 +3097,39 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
@@ -3001,7 +3138,7 @@
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -3013,13 +3150,13 @@
         <v>400</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -3028,60 +3165,66 @@
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,49 +3783,52 @@
         <v>-7500</v>
       </c>
       <c r="E72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,49 +3995,52 @@
         <v>-1500</v>
       </c>
       <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4049,11 +4248,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>-100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4061,11 +4260,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,19 +4539,22 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4346,37 +4563,40 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4415,14 +4636,14 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4565,12 +4795,12 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4584,19 +4814,22 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,31 +5058,34 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4848,25 +5094,28 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,26 +5164,29 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4942,27 +5194,30 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>CMXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -762,11 +770,11 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -795,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,11 +823,11 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -836,11 +850,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -848,8 +862,14 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,16 +877,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -889,11 +909,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -901,8 +921,14 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,13 +965,13 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -955,16 +983,16 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1062,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1060,29 +1100,35 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,26 +1153,26 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,13 +1204,15 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1167,46 +1221,52 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>-400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1000</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1000</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1332,8 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1415,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="P21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>500</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1100</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1100</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1100</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1100</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1100</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,22 +2410,22 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2260,17 +2434,17 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
@@ -2278,10 +2452,16 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2410,10 +2602,10 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2439,28 +2631,34 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2472,28 +2670,34 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,52 +2705,58 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2621,38 +2837,44 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3162,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,52 +3177,58 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,46 +3271,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
-        <v>700</v>
-      </c>
       <c r="H57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
@@ -3059,92 +3321,104 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
@@ -3153,25 +3427,31 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,52 +3459,58 @@
         <v>1700</v>
       </c>
       <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3798,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,52 +3813,58 @@
         <v>1700</v>
       </c>
       <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4352,14 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3998,49 +4370,55 @@
         <v>-1500</v>
       </c>
       <c r="F76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1100</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4251,25 +4649,25 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>-100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,31 +4985,31 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4584,19 +5018,25 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,18 +5081,18 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4798,15 +5258,15 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4817,19 +5277,25 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,10 +762,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -770,14 +773,14 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -856,8 +862,8 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -868,8 +874,11 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,10 +886,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -888,8 +897,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -915,8 +924,8 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -927,8 +936,11 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,13 +962,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -971,31 +984,31 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,8 +1113,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1106,29 +1125,32 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>-800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>800</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,12 +1181,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1172,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1227,46 +1253,49 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1306,7 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
@@ -1285,47 +1314,50 @@
       <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+      <c r="I18" s="3">
+        <v>-300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1406,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1418,55 +1454,58 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
-        <v>-200</v>
-      </c>
       <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1536,55 +1578,58 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1713,55 +1764,58 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1772,55 +1826,58 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-300</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,22 +2136,22 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2114,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2126,55 +2198,58 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-300</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2244,119 +2322,125 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-300</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,34 +2486,35 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2440,28 +2526,31 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2608,7 +2703,7 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2637,19 +2732,22 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2658,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2676,33 +2774,36 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2711,52 +2812,55 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2843,29 +2950,29 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>100</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,13 +3290,16 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -3183,52 +3308,55 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,19 +3412,19 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>900</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
       </c>
       <c r="I57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
@@ -3303,13 +3433,13 @@
         <v>700</v>
       </c>
       <c r="L57" s="3">
+        <v>700</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
@@ -3318,13 +3448,13 @@
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,31 +3474,31 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3374,25 +3507,28 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3400,19 +3536,19 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
@@ -3421,7 +3557,7 @@
         <v>700</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -3433,13 +3569,13 @@
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -3448,15 +3584,18 @@
         <v>400</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
         <v>1700</v>
@@ -3465,52 +3604,55 @@
         <v>1700</v>
       </c>
       <c r="G60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1000</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
       </c>
       <c r="P60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,13 +3958,16 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E66" s="3">
         <v>1700</v>
@@ -3819,52 +3976,55 @@
         <v>1700</v>
       </c>
       <c r="G66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
       </c>
       <c r="P66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7500</v>
       </c>
       <c r="G72" s="3">
         <v>-7500</v>
       </c>
       <c r="H72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-7200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,13 +4540,16 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="E76" s="3">
         <v>-1500</v>
@@ -4376,49 +4561,52 @@
         <v>-1500</v>
       </c>
       <c r="H76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4552,55 +4746,58 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-300</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4655,11 +4853,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4667,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,13 +5189,16 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -4991,13 +5207,13 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -5006,37 +5222,40 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5087,14 +5307,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5264,12 +5493,12 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5283,19 +5512,22 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,40 +5795,43 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5595,25 +5840,28 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,34 +5919,37 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-200</v>
-      </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5707,27 +5958,30 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>-200</v>
-      </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -776,14 +780,14 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -865,8 +872,8 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -900,8 +910,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -927,8 +937,8 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,16 +976,17 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -987,31 +1001,31 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1128,29 +1148,32 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,12 +1207,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1197,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1271,7 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1256,46 +1283,49 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1309,7 +1339,7 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
@@ -1317,47 +1347,50 @@
       <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="J18" s="3">
+        <v>-300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1457,55 +1494,58 @@
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>-200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
-        <v>-200</v>
-      </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1581,55 +1624,58 @@
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1767,55 +1819,58 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1829,55 +1884,58 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,22 +2209,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2201,55 +2274,58 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2325,122 +2404,128 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,28 +2583,28 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2529,28 +2616,31 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,13 +2766,16 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2706,7 +2802,7 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2759,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2777,28 +2876,31 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,7 +2908,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -2815,52 +2917,55 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2953,29 +3061,29 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
         <v>300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,7 +3428,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -3311,52 +3437,55 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,31 +3533,32 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
@@ -3436,13 +3567,13 @@
         <v>700</v>
       </c>
       <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
@@ -3451,13 +3582,13 @@
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
@@ -3465,43 +3596,46 @@
       <c r="V57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
       </c>
       <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3510,48 +3644,51 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
@@ -3560,7 +3697,7 @@
         <v>700</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3572,13 +3709,13 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
@@ -3587,18 +3724,21 @@
         <v>400</v>
       </c>
       <c r="V59" s="3">
+        <v>400</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1700</v>
       </c>
       <c r="F60" s="3">
         <v>1700</v>
@@ -3607,52 +3747,55 @@
         <v>1700</v>
       </c>
       <c r="H60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>1000</v>
       </c>
       <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,16 +4116,19 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1700</v>
       </c>
       <c r="F66" s="3">
         <v>1700</v>
@@ -3979,52 +4137,55 @@
         <v>1700</v>
       </c>
       <c r="H66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1000</v>
       </c>
       <c r="P66" s="3">
         <v>1000</v>
       </c>
       <c r="Q66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-7500</v>
       </c>
       <c r="H72" s="3">
         <v>-7500</v>
       </c>
       <c r="I72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-7200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,16 +4726,19 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1500</v>
       </c>
       <c r="F76" s="3">
         <v>-1500</v>
@@ -4564,49 +4750,52 @@
         <v>-1500</v>
       </c>
       <c r="I76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4749,55 +4944,58 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4856,11 +5055,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4868,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,7 +5418,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -5210,13 +5427,13 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -5225,37 +5442,40 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5310,14 +5531,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5496,12 +5726,12 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5515,19 +5745,22 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,43 +6041,46 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5843,25 +6089,28 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,37 +6171,40 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-200</v>
-      </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5961,27 +6213,30 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>CMXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,29 +780,29 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -822,8 +830,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,11 +862,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -875,11 +889,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -887,8 +901,14 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,22 +922,22 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -940,11 +960,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -952,8 +972,14 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,22 +1003,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1004,13 +1032,13 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1022,16 +1050,16 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1141,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1139,11 +1179,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1151,29 +1191,35 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>-800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,26 +1256,26 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1311,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,16 +1322,16 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1286,46 +1340,52 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>-400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1000</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1342,55 +1402,61 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1000</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
       <c r="W18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1432,26 +1500,26 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1547,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
@@ -1497,55 +1571,61 @@
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1689,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1704,7 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1627,55 +1713,61 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-1100</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1902,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1917,7 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1822,55 +1926,61 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-1100</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,7 +1988,7 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -1887,55 +1997,61 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-1100</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2212,26 +2352,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2259,8 +2399,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,7 +2414,7 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -2277,55 +2423,61 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-1100</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2541,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,7 +2556,7 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -2407,125 +2565,137 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-1100</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,19 +2746,21 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2595,22 +2769,22 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2619,17 +2793,17 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
@@ -2637,10 +2811,16 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,19 +2955,25 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2805,10 +2997,10 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2834,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,28 +3044,28 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2879,28 +3077,34 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2911,61 +3115,67 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3064,38 +3280,44 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
       <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3665,14 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3431,61 +3683,67 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>400</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>400</v>
+      </c>
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,58 +3794,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
-        <v>900</v>
-      </c>
       <c r="H57" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
-        <v>700</v>
-      </c>
       <c r="L57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
       </c>
       <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
@@ -3594,116 +3856,128 @@
         <v>400</v>
       </c>
       <c r="V57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -3712,90 +3986,102 @@
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
       </c>
       <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1700</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
       </c>
       <c r="I60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1700</v>
       </c>
       <c r="H66" s="3">
         <v>1700</v>
       </c>
       <c r="I66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,22 +5095,28 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1500</v>
       </c>
       <c r="H76" s="3">
         <v>-1500</v>
@@ -4753,49 +5125,55 @@
         <v>-1500</v>
       </c>
       <c r="J76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5237,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,7 +5328,7 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -4947,55 +5337,61 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-1100</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5058,25 +5456,25 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,52 +5837,58 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -5463,19 +5897,25 @@
         <v>-200</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5939,15 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5534,18 +5976,18 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5729,15 +6189,15 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5748,19 +6208,25 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6672,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,60 +6687,66 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>CMXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -797,14 +800,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +874,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -895,8 +901,8 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -939,8 +948,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -966,8 +975,8 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,16 +1027,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1038,31 +1051,31 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,19 +1163,22 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1173,8 +1192,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1185,8 +1204,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1197,29 +1216,32 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>-800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>800</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,12 +1284,12 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1275,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,10 +1348,10 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1334,7 +1360,7 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1346,46 +1372,49 @@
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,11 +1422,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
@@ -1408,7 +1437,7 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1416,47 +1445,50 @@
       <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
+      <c r="M18" s="3">
+        <v>-300</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-300</v>
       </c>
       <c r="Y18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,11 +1524,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1506,22 +1539,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1553,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,11 +1598,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
@@ -1577,55 +1613,58 @@
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>-200</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1704,11 +1746,11 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
@@ -1719,55 +1761,58 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>-200</v>
-      </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
       </c>
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1917,11 +1968,11 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
@@ -1932,55 +1983,58 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>-200</v>
-      </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
       </c>
       <c r="Y26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1988,11 +2042,11 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
@@ -2003,55 +2057,58 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>-200</v>
-      </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-300</v>
       </c>
       <c r="Y27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,10 +2412,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2358,22 +2427,22 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2405,8 +2474,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2414,11 +2486,11 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
@@ -2429,55 +2501,58 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>-200</v>
-      </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-300</v>
       </c>
       <c r="Y33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,11 +2634,11 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
@@ -2571,131 +2649,137 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>-200</v>
-      </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-300</v>
       </c>
       <c r="Y35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,16 +2833,17 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2766,28 +2852,28 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2799,28 +2885,31 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,22 +3053,25 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -3003,7 +3098,7 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3050,13 +3148,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3065,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3083,28 +3181,31 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3121,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -3130,52 +3231,55 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3286,29 +3393,29 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>100</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
       </c>
       <c r="V48" s="3">
+        <v>200</v>
+      </c>
+      <c r="W48" s="3">
         <v>300</v>
-      </c>
-      <c r="W48" s="3">
-        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
@@ -3316,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3689,7 +3814,7 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -3698,52 +3823,55 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>400</v>
-      </c>
-      <c r="X54" s="3">
-        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3808,28 +3938,28 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
       </c>
       <c r="M57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
@@ -3838,13 +3968,13 @@
         <v>700</v>
       </c>
       <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
@@ -3853,13 +3983,13 @@
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
@@ -3867,52 +3997,55 @@
       <c r="Y57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3921,25 +4054,28 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3950,28 +4086,28 @@
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
@@ -3980,7 +4116,7 @@
         <v>700</v>
       </c>
       <c r="P59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -3992,13 +4128,13 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
       <c r="V59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
@@ -4007,27 +4143,30 @@
         <v>400</v>
       </c>
       <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1700</v>
       </c>
       <c r="I60" s="3">
         <v>1700</v>
@@ -4036,52 +4175,55 @@
         <v>1700</v>
       </c>
       <c r="K60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1000</v>
       </c>
       <c r="S60" s="3">
         <v>1000</v>
       </c>
       <c r="T60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,25 +4589,28 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1700</v>
       </c>
       <c r="I66" s="3">
         <v>1700</v>
@@ -4462,52 +4619,55 @@
         <v>1700</v>
       </c>
       <c r="K66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1000</v>
       </c>
       <c r="S66" s="3">
         <v>1000</v>
       </c>
       <c r="T66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-7500</v>
       </c>
       <c r="K72" s="3">
         <v>-7500</v>
       </c>
       <c r="L72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,25 +5283,28 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E76" s="3">
         <v>-1600</v>
       </c>
       <c r="F76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1500</v>
       </c>
       <c r="I76" s="3">
         <v>-1500</v>
@@ -5131,49 +5316,52 @@
         <v>-1500</v>
       </c>
       <c r="L76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5328,11 +5522,11 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
@@ -5343,55 +5537,58 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>-200</v>
-      </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-300</v>
       </c>
       <c r="Y81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5462,11 +5660,11 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>-100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5474,10 +5672,10 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,25 +6056,28 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -5870,13 +6086,13 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5885,37 +6101,40 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,16 +6160,17 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5982,14 +6202,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6195,12 +6424,12 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6214,19 +6443,22 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,52 +6778,55 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6590,25 +6835,28 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6693,31 +6944,31 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>-200</v>
-      </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6726,27 +6977,30 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>-200</v>
-      </c>
       <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CMXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -803,14 +807,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -904,8 +911,8 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -951,8 +961,8 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -978,8 +988,8 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1030,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1054,31 +1068,31 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>100</v>
-      </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,11 +1197,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1195,8 +1215,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1207,8 +1227,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1219,29 +1239,32 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>-800</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>800</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,12 +1310,12 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1300,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,22 +1365,23 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1363,7 +1390,7 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1375,46 +1402,49 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1425,11 +1455,11 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
@@ -1440,7 +1470,7 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
@@ -1448,47 +1478,50 @@
       <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
+      <c r="N18" s="3">
+        <v>-300</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>-200</v>
-      </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-300</v>
       </c>
       <c r="Z18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,11 +1561,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1542,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,11 +1638,11 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
@@ -1616,55 +1653,58 @@
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>-200</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
       <c r="R21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,23 +1777,26 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
@@ -1764,55 +1807,58 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-300</v>
       </c>
       <c r="Z23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,23 +2008,26 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
@@ -1986,70 +2038,73 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-300</v>
       </c>
       <c r="Z26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
@@ -2060,55 +2115,58 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-300</v>
       </c>
       <c r="Z27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2430,22 +2500,22 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2477,23 +2547,26 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
@@ -2504,55 +2577,58 @@
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-300</v>
       </c>
       <c r="Z33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,23 +2701,26 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
@@ -2652,134 +2731,140 @@
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-300</v>
       </c>
       <c r="Z35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2843,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2855,28 +2942,28 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2888,28 +2975,31 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3067,14 +3163,14 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -3101,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3151,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3166,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3184,28 +3283,31 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3225,7 +3327,7 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
@@ -3234,52 +3336,55 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3396,29 +3504,29 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
       <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
         <v>300</v>
-      </c>
-      <c r="X48" s="3">
-        <v>200</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3817,7 +3943,7 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
@@ -3826,52 +3952,55 @@
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>400</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3941,28 +4072,28 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>900</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
@@ -3971,13 +4102,13 @@
         <v>700</v>
       </c>
       <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
@@ -3986,13 +4117,13 @@
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
@@ -4000,55 +4131,58 @@
       <c r="Z57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4057,25 +4191,28 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
       <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4089,28 +4226,28 @@
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
@@ -4119,7 +4256,7 @@
         <v>700</v>
       </c>
       <c r="Q59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -4131,13 +4268,13 @@
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
@@ -4146,30 +4283,33 @@
         <v>400</v>
       </c>
       <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1700</v>
       </c>
       <c r="J60" s="3">
         <v>1700</v>
@@ -4178,52 +4318,55 @@
         <v>1700</v>
       </c>
       <c r="L60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1000</v>
       </c>
       <c r="T60" s="3">
         <v>1000</v>
       </c>
       <c r="U60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,28 +4747,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1700</v>
       </c>
       <c r="J66" s="3">
         <v>1700</v>
@@ -4622,52 +4780,55 @@
         <v>1700</v>
       </c>
       <c r="L66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1000</v>
       </c>
       <c r="T66" s="3">
         <v>1000</v>
       </c>
       <c r="U66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-7500</v>
       </c>
       <c r="L72" s="3">
         <v>-7500</v>
       </c>
       <c r="M72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-7200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,28 +5469,31 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1600</v>
       </c>
       <c r="F76" s="3">
         <v>-1600</v>
       </c>
       <c r="G76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1500</v>
       </c>
       <c r="J76" s="3">
         <v>-1500</v>
@@ -5319,49 +5505,52 @@
         <v>-1500</v>
       </c>
       <c r="M76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,102 +5623,108 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
@@ -5540,55 +5735,58 @@
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-300</v>
       </c>
       <c r="Z81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5663,11 +5862,11 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>-100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -5675,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6068,19 +6285,19 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -6089,13 +6306,13 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -6104,37 +6321,40 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>-200</v>
-      </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>-200</v>
-      </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6172,8 +6393,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6205,14 +6426,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6427,12 +6657,12 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6446,19 +6676,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,46 +7036,46 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6838,25 +7084,28 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6947,31 +7199,31 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>-200</v>
-      </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6980,27 +7232,30 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>-200</v>
-      </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>CMXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -808,23 +819,23 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +860,17 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,14 +907,14 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -914,20 +934,29 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -962,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -991,20 +1020,29 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1070,11 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,25 +1085,25 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1071,37 +1112,37 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
-        <v>100</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
@@ -1109,8 +1150,17 @@
       <c r="AA12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1236,17 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,11 +1256,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1209,8 +1268,8 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1218,53 +1277,62 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>800</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,20 +1381,20 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1335,13 +1403,22 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,22 +1443,25 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1390,61 +1470,70 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>-400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1541,85 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-300</v>
       </c>
       <c r="AA18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1647,11 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,44 +1665,44 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1727,17 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1745,85 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3" t="s">
+      <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-200</v>
       </c>
       <c r="AA21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,85 +1899,103 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-300</v>
       </c>
       <c r="AA23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2071,17 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2157,189 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-300</v>
       </c>
       <c r="AA26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-300</v>
       </c>
       <c r="AA27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2415,17 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2501,17 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2587,17 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2673,17 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2497,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2511,21 +2720,21 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2759,103 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-300</v>
       </c>
       <c r="AA33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2931,194 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-300</v>
       </c>
       <c r="AA35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3146,11 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3178,11 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2933,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2942,64 +3202,73 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3344,17 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3430,17 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3166,20 +3453,20 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -3200,13 +3487,13 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3229,8 +3516,17 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3253,22 +3549,22 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3277,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3286,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3298,27 +3594,36 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>100</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3330,61 +3635,70 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>400</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,16 +3774,25 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3507,26 +3830,26 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>100</v>
-      </c>
-      <c r="V48" s="3">
-        <v>200</v>
-      </c>
       <c r="W48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
@@ -3535,10 +3858,19 @@
         <v>200</v>
       </c>
       <c r="AA48" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3946,17 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +4032,17 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4118,17 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4204,17 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,19 +4290,28 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -3946,52 +4323,52 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>500</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>300</v>
-      </c>
-      <c r="X54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>400</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
@@ -3999,8 +4376,17 @@
       <c r="AA54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4414,11 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4446,11 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4075,7 +4467,7 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -4084,289 +4476,325 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L57" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>900</v>
       </c>
       <c r="O57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>900</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>500</v>
       </c>
       <c r="Y57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z57" s="3">
         <v>400</v>
       </c>
       <c r="AA57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>500</v>
+      </c>
+      <c r="S58" s="3">
+        <v>500</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AD58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>900</v>
+      </c>
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
       </c>
       <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2000</v>
       </c>
       <c r="P60" s="3">
         <v>1900</v>
       </c>
       <c r="Q60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AC60" s="3">
         <v>1900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AD60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4870,17 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4956,17 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +5042,17 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +5128,17 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5214,103 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2000</v>
       </c>
       <c r="P66" s="3">
         <v>1900</v>
       </c>
       <c r="Q66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AC66" s="3">
         <v>1900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AD66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5338,11 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5418,17 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5504,17 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5590,17 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5676,103 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-8800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-7700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-7500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-7500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-7200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-6900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-6400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-6300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-6000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-5800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-5500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-5300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-4500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AC72" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AD72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5848,17 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5934,17 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +6020,103 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1500</v>
       </c>
       <c r="M76" s="3">
         <v>-1500</v>
       </c>
       <c r="N76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-1200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>-800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>-500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AC76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AD76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6192,194 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-300</v>
       </c>
       <c r="AA81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6407,11 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5865,19 +6461,19 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>-100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5886,13 +6482,22 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6573,17 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6659,17 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6745,17 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6831,17 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6917,17 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6288,73 +6938,82 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>-200</v>
-      </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,68 +7041,71 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6459,8 +7121,17 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +7207,17 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,16 +7293,25 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6660,18 +7349,18 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6679,19 +7368,28 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7417,11 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7497,17 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7583,17 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7669,17 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7755,17 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,73 +7776,82 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>400</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7927,17 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7202,60 +7957,69 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>CMXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,134 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,29 +827,29 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -869,8 +877,14 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,11 +930,11 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -943,11 +957,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -955,8 +969,14 @@
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,22 +1011,22 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -1029,11 +1049,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC10" s="3">
         <v>0</v>
@@ -1041,8 +1061,14 @@
       <c r="AD10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1099,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,31 +1113,31 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1121,13 +1149,13 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1139,16 +1167,16 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="3">
         <v>100</v>
@@ -1159,8 +1187,14 @@
       <c r="AD12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1279,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,26 +1296,26 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1286,11 +1326,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1298,11 +1338,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1310,29 +1350,35 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-800</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>800</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,26 +1436,26 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -1417,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1498,10 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1512,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1467,25 +1521,25 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1494,46 +1548,52 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>300</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1000</v>
       </c>
       <c r="AC17" s="3">
         <v>300</v>
       </c>
       <c r="AD17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1544,7 +1604,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1553,17 +1613,17 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
@@ -1571,55 +1631,61 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
-      </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>400</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-1000</v>
       </c>
       <c r="AC18" s="3">
         <v>-300</v>
       </c>
       <c r="AD18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1716,10 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1674,14 +1742,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1689,26 +1757,26 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1804,14 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1822,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1757,17 +1831,17 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
@@ -1775,55 +1849,61 @@
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1988,14 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,29 +2003,29 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
@@ -1947,55 +2033,61 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-200</v>
-      </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>400</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-1100</v>
       </c>
       <c r="AC23" s="3">
         <v>-300</v>
       </c>
       <c r="AD23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2172,14 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2264,14 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2175,29 +2279,29 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
@@ -2205,55 +2309,61 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-200</v>
-      </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>400</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-1100</v>
       </c>
       <c r="AC26" s="3">
         <v>-300</v>
       </c>
       <c r="AD26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2261,29 +2371,29 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
@@ -2291,55 +2401,61 @@
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>400</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-1100</v>
       </c>
       <c r="AC27" s="3">
         <v>-300</v>
       </c>
       <c r="AD27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2816,14 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2706,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2721,26 +2861,26 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2768,8 +2908,14 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2777,29 +2923,29 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
@@ -2807,55 +2953,61 @@
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>400</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-1100</v>
       </c>
       <c r="AC33" s="3">
         <v>-300</v>
       </c>
       <c r="AD33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3092,14 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2949,29 +3107,29 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
@@ -2979,146 +3137,158 @@
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>400</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-1100</v>
       </c>
       <c r="AC35" s="3">
         <v>-300</v>
       </c>
       <c r="AD35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,13 +3353,15 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3202,19 +3376,19 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -3223,22 +3397,22 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -3247,17 +3421,17 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
@@ -3265,10 +3439,16 @@
         <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3533,14 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,40 +3625,46 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -3496,10 +3688,10 @@
         <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3525,8 +3717,14 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3558,28 +3756,28 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3591,28 +3789,34 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3626,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3644,61 +3848,67 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
       <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3993,14 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3794,11 +4010,11 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3839,38 +4055,44 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>100</v>
-      </c>
-      <c r="X48" s="3">
-        <v>100</v>
-      </c>
       <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
         <v>200</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>300</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
       </c>
       <c r="AC48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4177,14 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4361,14 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,13 +4545,19 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -4314,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -4332,61 +4584,67 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>300</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>300</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>400</v>
       </c>
       <c r="AC54" s="3">
         <v>300</v>
       </c>
       <c r="AD54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4709,10 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4476,52 +4738,52 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
-        <v>900</v>
-      </c>
       <c r="O57" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>900</v>
       </c>
       <c r="Q57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
-        <v>700</v>
-      </c>
       <c r="S57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
       </c>
       <c r="U57" s="3">
+        <v>700</v>
+      </c>
+      <c r="V57" s="3">
+        <v>700</v>
+      </c>
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>500</v>
       </c>
       <c r="Y57" s="3">
         <v>500</v>
       </c>
       <c r="Z57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA57" s="3">
         <v>500</v>
@@ -4530,99 +4792,111 @@
         <v>400</v>
       </c>
       <c r="AC57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AD57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
       <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
         <v>600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AF58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4636,10 +4910,10 @@
         <v>1000</v>
       </c>
       <c r="G59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>900</v>
@@ -4648,40 +4922,40 @@
         <v>900</v>
       </c>
       <c r="K59" s="3">
+        <v>900</v>
+      </c>
+      <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
       <c r="U59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="V59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
@@ -4690,25 +4964,31 @@
         <v>400</v>
       </c>
       <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>400</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>400</v>
       </c>
       <c r="AC59" s="3">
         <v>400</v>
       </c>
       <c r="AD59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,85 +4996,91 @@
         <v>4</v>
       </c>
       <c r="E60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1700</v>
       </c>
       <c r="O60" s="3">
         <v>1700</v>
       </c>
       <c r="P60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5165,14 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5257,14 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1700</v>
       </c>
       <c r="O66" s="3">
         <v>1700</v>
       </c>
       <c r="P66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +6027,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-6300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-5800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-4600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,43 +6395,49 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1500</v>
       </c>
       <c r="O76" s="3">
         <v>-1500</v>
@@ -6074,49 +6446,55 @@
         <v>-1500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6579,111 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6301,29 +6691,29 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
@@ -6331,55 +6721,61 @@
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>400</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-1100</v>
       </c>
       <c r="AC81" s="3">
         <v>-300</v>
       </c>
       <c r="AD81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6806,10 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6470,25 +6868,25 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>-100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
       <c r="AB83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
@@ -6496,8 +6894,14 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,13 +7354,19 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6947,52 +7381,52 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -7001,19 +7435,25 @@
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7484,10 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7100,18 +7542,18 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
@@ -7130,8 +7572,14 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,71 +7756,77 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -7377,19 +7837,25 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7886,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8250,14 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7785,73 +8277,79 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,13 +8434,19 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7966,60 +8470,66 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>CMXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -833,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -844,14 +848,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -883,13 +887,16 @@
       <c r="AF8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -936,8 +943,8 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -963,8 +970,8 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD9" s="3">
         <v>0</v>
@@ -975,8 +982,11 @@
       <c r="AF9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -1028,8 +1038,8 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -1055,8 +1065,8 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD10" s="3">
         <v>0</v>
@@ -1067,8 +1077,11 @@
       <c r="AF10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,8 +1114,9 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1119,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1131,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1155,31 +1169,31 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
-        <v>100</v>
-      </c>
       <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="Y12" s="3">
-        <v>100</v>
-      </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="3">
         <v>100</v>
@@ -1193,8 +1207,11 @@
       <c r="AF12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,8 +1302,11 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1302,11 +1322,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1314,11 +1334,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1332,8 +1352,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1344,8 +1364,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1356,34 +1376,37 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-800</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>800</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1442,12 +1465,12 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
@@ -1455,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,13 +1526,14 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1518,22 +1545,22 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1542,7 +1569,7 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1554,46 +1581,49 @@
         <v>300</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>-400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1000</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>300</v>
       </c>
       <c r="AF17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1610,23 +1640,23 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
@@ -1637,7 +1667,7 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
@@ -1645,47 +1675,50 @@
       <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
+      <c r="T18" s="3">
+        <v>-300</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
-        <v>-200</v>
-      </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>-300</v>
       </c>
       <c r="AF18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,8 +1751,9 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1748,11 +1782,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1763,22 +1797,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1810,8 +1844,11 @@
       <c r="AF20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1828,23 +1865,23 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
@@ -1855,55 +1892,58 @@
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
+      <c r="T21" s="3">
+        <v>-200</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
-        <v>-200</v>
-      </c>
       <c r="X21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y21" s="3">
         <v>-300</v>
       </c>
       <c r="Z21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE21" s="3">
-        <v>-200</v>
-      </c>
       <c r="AF21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AG21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1994,13 +2034,16 @@
       <c r="AF22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -2009,26 +2052,26 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
@@ -2039,55 +2082,58 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>-200</v>
-      </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
       </c>
       <c r="V23" s="3">
         <v>-400</v>
       </c>
       <c r="W23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
       <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>-300</v>
       </c>
       <c r="AF23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2178,8 +2224,11 @@
       <c r="AF24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,13 +2319,16 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2285,26 +2337,26 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
@@ -2315,60 +2367,63 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>-200</v>
-      </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
       </c>
       <c r="V26" s="3">
         <v>-400</v>
       </c>
       <c r="W26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>-300</v>
       </c>
       <c r="AF26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2377,26 +2432,26 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
@@ -2407,55 +2462,58 @@
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>-200</v>
-      </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
       </c>
       <c r="W27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>-300</v>
       </c>
       <c r="AF27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,8 +2889,11 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2852,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2867,22 +2937,22 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2914,13 +2984,16 @@
       <c r="AF32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2929,26 +3002,26 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
@@ -2959,55 +3032,58 @@
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>-200</v>
-      </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
       </c>
       <c r="V33" s="3">
         <v>-400</v>
       </c>
       <c r="W33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AE33" s="3">
-        <v>-300</v>
       </c>
       <c r="AF33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,13 +3174,16 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -3113,26 +3192,26 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
@@ -3143,152 +3222,158 @@
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>-200</v>
-      </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
       </c>
       <c r="V35" s="3">
         <v>-400</v>
       </c>
       <c r="W35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AE35" s="3">
-        <v>-300</v>
       </c>
       <c r="AF35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,8 +3441,9 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3364,7 +3451,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -3382,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -3394,28 +3481,28 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -3427,28 +3514,31 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
-        <v>100</v>
-      </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3539,8 +3629,11 @@
       <c r="AF42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3631,8 +3724,11 @@
       <c r="AF43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3657,17 +3753,17 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -3694,7 +3790,7 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3723,8 +3819,11 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3762,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3777,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3795,36 +3894,39 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="3">
         <v>100</v>
       </c>
       <c r="AE45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3836,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3854,7 +3956,7 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -3863,52 +3965,55 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
-        <v>100</v>
-      </c>
       <c r="AC46" s="3">
         <v>100</v>
       </c>
       <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE46" s="3">
         <v>200</v>
       </c>
-      <c r="AE46" s="3">
-        <v>0</v>
-      </c>
       <c r="AF46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3999,8 +4104,11 @@
       <c r="AF47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4016,8 +4124,8 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -4061,29 +4169,29 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3">
-        <v>100</v>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
       </c>
       <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD48" s="3">
         <v>300</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>200</v>
       </c>
       <c r="AE48" s="3">
         <v>200</v>
@@ -4091,8 +4199,11 @@
       <c r="AF48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4183,8 +4294,11 @@
       <c r="AF49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,8 +4484,11 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4459,8 +4579,11 @@
       <c r="AF52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,8 +4674,11 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4560,7 +4686,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -4572,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -4590,7 +4716,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
@@ -4599,52 +4725,55 @@
         <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>300</v>
       </c>
       <c r="AC54" s="3">
         <v>300</v>
       </c>
       <c r="AD54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE54" s="3">
         <v>400</v>
-      </c>
-      <c r="AE54" s="3">
-        <v>300</v>
       </c>
       <c r="AF54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,8 +4841,9 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4744,28 +4875,28 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>900</v>
       </c>
       <c r="S57" s="3">
         <v>900</v>
       </c>
       <c r="T57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
@@ -4774,13 +4905,13 @@
         <v>700</v>
       </c>
       <c r="W57" s="3">
+        <v>700</v>
+      </c>
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>500</v>
       </c>
       <c r="Z57" s="3">
         <v>500</v>
@@ -4789,13 +4920,13 @@
         <v>500</v>
       </c>
       <c r="AB57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>500</v>
-      </c>
-      <c r="AD57" s="3">
-        <v>400</v>
       </c>
       <c r="AE57" s="3">
         <v>400</v>
@@ -4803,73 +4934,76 @@
       <c r="AF57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
       </c>
       <c r="S58" s="3">
+        <v>400</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>500</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
@@ -4878,30 +5012,33 @@
         <v>100</v>
       </c>
       <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>300</v>
       </c>
-      <c r="AD58" s="3">
-        <v>100</v>
-      </c>
       <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF58" s="3">
         <v>1100</v>
       </c>
-      <c r="AF58" s="3">
+      <c r="AG58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
@@ -4916,7 +5053,7 @@
         <v>1000</v>
       </c>
       <c r="I59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
@@ -4928,28 +5065,28 @@
         <v>900</v>
       </c>
       <c r="M59" s="3">
+        <v>900</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
       </c>
       <c r="T59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
@@ -4958,7 +5095,7 @@
         <v>700</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
@@ -4970,13 +5107,13 @@
         <v>400</v>
       </c>
       <c r="AA59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AB59" s="3">
         <v>500</v>
       </c>
       <c r="AC59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AD59" s="3">
         <v>400</v>
@@ -4985,48 +5122,51 @@
         <v>400</v>
       </c>
       <c r="AF59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AG59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>2500</v>
       </c>
       <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2100</v>
       </c>
       <c r="H60" s="3">
         <v>2100</v>
       </c>
       <c r="I60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1700</v>
       </c>
       <c r="P60" s="3">
         <v>1700</v>
@@ -5035,52 +5175,55 @@
         <v>1700</v>
       </c>
       <c r="R60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1000</v>
       </c>
       <c r="Z60" s="3">
         <v>1000</v>
       </c>
       <c r="AA60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1900</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5171,8 +5314,11 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5263,8 +5409,11 @@
       <c r="AF62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,8 +5694,11 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5548,37 +5706,37 @@
         <v>2500</v>
       </c>
       <c r="E66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2100</v>
       </c>
       <c r="H66" s="3">
         <v>2100</v>
       </c>
       <c r="I66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1700</v>
       </c>
       <c r="P66" s="3">
         <v>1700</v>
@@ -5587,52 +5745,55 @@
         <v>1700</v>
       </c>
       <c r="R66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1000</v>
       </c>
       <c r="Z66" s="3">
         <v>1000</v>
       </c>
       <c r="AA66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1900</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,8 +6014,11 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,100 +6204,106 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-7500</v>
       </c>
       <c r="R72" s="3">
         <v>-7500</v>
       </c>
       <c r="S72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-7200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-4600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-3500</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,46 +6584,49 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1600</v>
       </c>
       <c r="L76" s="3">
         <v>-1600</v>
       </c>
       <c r="M76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1500</v>
       </c>
       <c r="P76" s="3">
         <v>-1500</v>
@@ -6452,49 +6638,52 @@
         <v>-1500</v>
       </c>
       <c r="S76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,110 +6774,116 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -6697,26 +6892,26 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
@@ -6727,55 +6922,58 @@
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>-200</v>
-      </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
       </c>
       <c r="V81" s="3">
         <v>-400</v>
       </c>
       <c r="W81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AE81" s="3">
-        <v>-300</v>
       </c>
       <c r="AF81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,13 +7006,14 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -6874,11 +7073,11 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>-100</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
@@ -6886,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD83" s="3">
         <v>0</v>
@@ -6900,8 +7099,11 @@
       <c r="AF83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,8 +7574,11 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7369,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -7387,19 +7604,19 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
@@ -7408,13 +7625,13 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -7423,37 +7640,40 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>-200</v>
-      </c>
       <c r="AC89" s="3">
         <v>-200</v>
       </c>
       <c r="AD89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-300</v>
-      </c>
-      <c r="AE89" s="3">
-        <v>-100</v>
       </c>
       <c r="AF89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,8 +7706,9 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7548,14 +7769,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7578,8 +7799,11 @@
       <c r="AF91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,8 +7989,11 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7824,12 +8054,12 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -7843,19 +8073,22 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
       <c r="AF94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,8 +8121,9 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,13 +8499,16 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -8283,46 +8529,46 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -8331,25 +8577,28 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AC100" s="3">
-        <v>100</v>
-      </c>
       <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
         <v>400</v>
       </c>
-      <c r="AE100" s="3">
-        <v>100</v>
-      </c>
       <c r="AF100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8440,16 +8689,19 @@
       <c r="AF101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -8476,31 +8728,31 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
-      </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -8509,27 +8761,30 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
-        <v>100</v>
-      </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
-        <v>100</v>
-      </c>
       <c r="AE102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="3">
         <v>0</v>
       </c>
     </row>
